--- a/src/main/resources/tp/_export_tally_form.xlsx
+++ b/src/main/resources/tp/_export_tally_form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20346"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bdiam\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721B104F-A172-4C23-A508-C740736D14DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796B9F0-5943-4240-B9E5-29FEF3745A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="187">
   <si>
     <t>主单号</t>
   </si>
@@ -610,6 +610,9 @@
     <t>t.wrap_class</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>t.xxxx</t>
+  </si>
 </sst>
 </file>
 
@@ -974,7 +977,7 @@
   </sheetPr>
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -1294,8 +1297,8 @@
   </sheetPr>
   <dimension ref="A1:AM1021"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1508,6 +1511,36 @@
       <c r="R2" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="AC2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1516,6 +1549,9 @@
       </c>
       <c r="AF2" s="5" t="s">
         <v>169</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>67</v>
@@ -43331,8 +43367,8 @@
   </sheetPr>
   <dimension ref="A1:W1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43453,6 +43489,9 @@
       <c r="I2" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>145</v>
       </c>
@@ -43473,6 +43512,9 @@
       </c>
       <c r="Q2" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>152</v>

--- a/src/main/resources/tp/_export_tally_form.xlsx
+++ b/src/main/resources/tp/_export_tally_form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bdiam\BP\src\main\resources\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796B9F0-5943-4240-B9E5-29FEF3745A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29DD63C-BAEE-483C-BAA6-13CB0F2231AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1297,8 +1297,8 @@
   </sheetPr>
   <dimension ref="A1:AM1021"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43367,8 +43367,8 @@
   </sheetPr>
   <dimension ref="A1:W1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43462,7 +43462,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B2" s="1" t="s">

--- a/src/main/resources/tp/_export_tally_form.xlsx
+++ b/src/main/resources/tp/_export_tally_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29DD63C-BAEE-483C-BAA6-13CB0F2231AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2F5CE9-F801-4B13-B6DC-AF2A6E035788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,10 +495,6 @@
     <t>t.remark5}}</t>
   </si>
   <si>
-    <t>{{$fe:list2 t.main_bill_no</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>申报单价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -612,6 +608,10 @@
   </si>
   <si>
     <t>t.xxxx</t>
+  </si>
+  <si>
+    <t>{{$fe:list2 t.party_bill_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1048,28 +1048,28 @@
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
@@ -1123,7 +1123,7 @@
         <v>33</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>34</v>
@@ -1138,7 +1138,7 @@
         <v>37</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>38</v>
@@ -1176,7 +1176,7 @@
         <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>49</v>
@@ -1200,7 +1200,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>57</v>
@@ -1260,7 +1260,7 @@
         <v>74</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>49</v>
@@ -1275,7 +1275,7 @@
         <v>77</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>78</v>
@@ -1375,7 +1375,7 @@
         <v>88</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>89</v>
@@ -1458,16 +1458,16 @@
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -1485,7 +1485,7 @@
         <v>113</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>114</v>
@@ -1494,16 +1494,16 @@
         <v>115</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>116</v>
@@ -1512,34 +1512,34 @@
         <v>117</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>56</v>
@@ -1548,10 +1548,10 @@
         <v>118</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>67</v>
@@ -43368,7 +43368,7 @@
   <dimension ref="A1:W1119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43401,13 +43401,13 @@
         <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>124</v>
@@ -43440,10 +43440,10 @@
         <v>133</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>134</v>
@@ -43463,7 +43463,7 @@
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>139</v>
@@ -43472,13 +43472,13 @@
         <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>142</v>
@@ -43490,7 +43490,7 @@
         <v>144</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>145</v>
@@ -43514,7 +43514,7 @@
         <v>151</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>152</v>

--- a/src/main/resources/tp/_export_tally_form.xlsx
+++ b/src/main/resources/tp/_export_tally_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2F5CE9-F801-4B13-B6DC-AF2A6E035788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFA578D-DFFC-49B6-BA7C-515F14E6543B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="188">
   <si>
     <t>主单号</t>
   </si>
@@ -613,6 +613,9 @@
     <t>{{$fe:list2 t.party_bill_no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>t.zip_code</t>
+  </si>
 </sst>
 </file>
 
@@ -627,6 +630,7 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1297,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:AM1021"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1524,7 +1528,7 @@
         <v>185</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>185</v>
@@ -43354,7 +43358,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -43367,7 +43371,7 @@
   </sheetPr>
   <dimension ref="A1:W1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/tp/_export_tally_form.xlsx
+++ b/src/main/resources/tp/_export_tally_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFA578D-DFFC-49B6-BA7C-515F14E6543B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F391D30F-8E14-47E6-99CB-FA45D8E9DC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="190">
   <si>
     <t>主单号</t>
   </si>
@@ -616,12 +616,19 @@
   <si>
     <t>t.zip_code</t>
   </si>
+  <si>
+    <t>转关运输工具名称</t>
+  </si>
+  <si>
+    <t>t.trans_traf_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -647,6 +654,18 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -685,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -700,6 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -979,10 +999,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -995,7 +1015,7 @@
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
     <col min="17" max="30" width="11" customWidth="1"/>
     <col min="31" max="32" width="15" customWidth="1"/>
     <col min="33" max="33" width="13" customWidth="1"/>
@@ -1011,7 +1031,7 @@
     <col min="45" max="45" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1057,98 +1077,101 @@
       <c r="O1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1195,93 +1218,96 @@
         <v>52</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1301,7 +1327,7 @@
   </sheetPr>
   <dimension ref="A1:AM1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
